--- a/result/deepLearning/parameterTuning_05_01_2016.xlsx
+++ b/result/deepLearning/parameterTuning_05_01_2016.xlsx
@@ -71,7 +71,7 @@
     <t>next step</t>
   </si>
   <si>
-    <t>Lr </t>
+    <t>Lr</t>
   </si>
   <si>
     <t>0.11-0.14</t>
@@ -91,11 +91,12 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="0.00E+000"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -112,19 +113,19 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,7 +162,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -170,7 +171,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -198,7 +207,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G25" activeCellId="0" sqref="G25"/>
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -258,54 +267,54 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="D2" s="0" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="n">
-        <v>125.224618</v>
-      </c>
-      <c r="G2" s="0" t="n">
-        <v>541.089349</v>
-      </c>
-      <c r="H2" s="0" t="n">
-        <v>0.99265192</v>
-      </c>
-      <c r="I2" s="3" t="n">
-        <v>7.61945195E-113</v>
-      </c>
-      <c r="J2" s="0" t="n">
-        <v>1.38772277</v>
-      </c>
-      <c r="K2" s="0" t="n">
-        <v>0.978101298</v>
-      </c>
-      <c r="L2" s="0" t="n">
-        <v>0.996696103</v>
-      </c>
-      <c r="M2" s="0" t="n">
-        <v>0.0753688562</v>
-      </c>
-      <c r="N2" s="0" t="n">
-        <v>0.0200321763</v>
-      </c>
-      <c r="O2" s="0" t="n">
-        <v>0.00234896149</v>
-      </c>
-      <c r="P2" s="0" t="n">
-        <v>0.0804689328</v>
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>34.6462897</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>143.506314</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>0.994771652</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>9.2572132E-122</v>
+      </c>
+      <c r="J2" s="3" t="n">
+        <v>0.323347492</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>0.977597842</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>0.996410942</v>
+      </c>
+      <c r="M2" s="3" t="n">
+        <v>0.0776488308</v>
+      </c>
+      <c r="N2" s="3" t="n">
+        <v>0.0206668305</v>
+      </c>
+      <c r="O2" s="3" t="n">
+        <v>0.00258940145</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>0.0811718329</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -313,49 +322,49 @@
         <v>50</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>130.951754</v>
+        <v>34.3428187</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>474.728405</v>
+        <v>150.04561</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>0.993366225</v>
-      </c>
-      <c r="I3" s="3" t="n">
-        <v>1.59970208E-115</v>
+        <v>0.994646079</v>
+      </c>
+      <c r="I3" s="5" t="n">
+        <v>3.87688392E-121</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1.37810775</v>
+        <v>0.324372179</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>0.978586416</v>
+        <v>0.977237068</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.997138258</v>
+        <v>0.996034353</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.0729665915</v>
+        <v>0.0782591619</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.0200628992</v>
+        <v>0.0205979935</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>0.00223952679</v>
+        <v>0.00268728916</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>0.0781061265</v>
+        <v>0.0814640945</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,49 +372,49 @@
         <v>50</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0.15</v>
+        <v>0.09</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>122.671094</v>
+        <v>33.5565681</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>473.091309</v>
+        <v>162.474085</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>0.992187809</v>
-      </c>
-      <c r="I4" s="3" t="n">
-        <v>3.05660548E-111</v>
+        <v>0.993957959</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>5.71041626E-118</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1.40219118</v>
+        <v>0.336873355</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0.978281242</v>
+        <v>0.977188571</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.996995708</v>
+        <v>0.995947375</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.0762541836</v>
+        <v>0.0779291136</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.0200950412</v>
+        <v>0.0204295548</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>0.00225683233</v>
+        <v>0.00269218078</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>0.0816040325</v>
+        <v>0.0810033323</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -419,43 +428,43 @@
         <v>100</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>106.598489</v>
+        <v>130.951754</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>541.938493</v>
+        <v>474.728405</v>
       </c>
       <c r="H5" s="0" t="n">
-        <v>0.988783424</v>
-      </c>
-      <c r="I5" s="3" t="n">
-        <v>8.821873E-102</v>
+        <v>0.993366225</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>1.59970208E-115</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>1.46379781</v>
+        <v>1.37810775</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0.978160901</v>
+        <v>0.978586416</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.997745048</v>
+        <v>0.997138258</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.0841237024</v>
+        <v>0.0729665915</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.0201783234</v>
+        <v>0.0200628992</v>
       </c>
       <c r="O5" s="0" t="n">
-        <v>0.00166966357</v>
+        <v>0.00223952679</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.0908348081</v>
+        <v>0.0781061265</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -469,43 +478,43 @@
         <v>100</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>0.25</v>
+        <v>0.09</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>107.373526</v>
+        <v>125.224618</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>581.000826</v>
+        <v>541.089349</v>
       </c>
       <c r="H6" s="0" t="n">
-        <v>0.98817047</v>
-      </c>
-      <c r="I6" s="3" t="n">
-        <v>2.16625971E-100</v>
+        <v>0.99265192</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>7.61945195E-113</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1.51489738</v>
+        <v>1.38772277</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>0.977697361</v>
+        <v>0.978101298</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.997547068</v>
+        <v>0.996696103</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.0856033981</v>
+        <v>0.0753688562</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.0201334771</v>
+        <v>0.0200321763</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>0.00183331518</v>
+        <v>0.00234896149</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.0920337305</v>
+        <v>0.0804689328</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -519,43 +528,43 @@
         <v>100</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.3</v>
+        <v>0.15</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>42.7096245</v>
+        <v>122.671094</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>303.402211</v>
+        <v>473.091309</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>0.977174375</v>
-      </c>
-      <c r="I7" s="3" t="n">
-        <v>2.91610953E-083</v>
+        <v>0.992187809</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>3.05660548E-111</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.84410179</v>
+        <v>1.40219118</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.97701158</v>
+        <v>0.978281242</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.999854962</v>
+        <v>0.996995708</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.12966745</v>
+        <v>0.0762541836</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.0220939934</v>
+        <v>0.0200950412</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>0.000144767453</v>
+        <v>0.00225683233</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.137256894</v>
+        <v>0.0816040325</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,49 +572,49 @@
         <v>50</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>11.8421388</v>
+        <v>29.2623845</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>164.388998</v>
+        <v>171.724511</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>0.943322334</v>
-      </c>
-      <c r="I8" s="3" t="n">
-        <v>8.3741405E-060</v>
+        <v>0.990985605</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>1.70138783E-107</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.378752706</v>
+        <v>0.35962679</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.97633414</v>
+        <v>0.977052934</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.999023856</v>
+        <v>0.996566824</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>0.153593498</v>
+        <v>0.0838027849</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.0220837091</v>
+        <v>0.0204284412</v>
       </c>
       <c r="O8" s="0" t="n">
-        <v>0.000773897645</v>
+        <v>0.00224556688</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.160021486</v>
+        <v>0.0877600405</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -619,43 +628,43 @@
         <v>100</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>0</v>
+        <v>106.598489</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>541.938493</v>
       </c>
       <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>1</v>
+        <v>0.988783424</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>8.821873E-102</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0</v>
+        <v>1.46379781</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.97687999</v>
+        <v>0.978160901</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>1</v>
+        <v>0.997745048</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>0.16324694</v>
+        <v>0.0841237024</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.02224061</v>
+        <v>0.0201783234</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>0</v>
+        <v>0.00166966357</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>0.16965842</v>
+        <v>0.0908348081</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -669,43 +678,43 @@
         <v>100</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.45</v>
+        <v>0.25</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>107.373526</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0</v>
+        <v>581.000826</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" s="0" t="n">
-        <v>1</v>
+        <v>0.98817047</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>2.16625971E-100</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0</v>
+        <v>1.51489738</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.97687999</v>
+        <v>0.977697361</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>1</v>
+        <v>0.997547068</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>0.16324694</v>
+        <v>0.0856033981</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.02224061</v>
+        <v>0.0201334771</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>0</v>
+        <v>0.00183331518</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.16965842</v>
+        <v>0.0920337305</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -719,43 +728,43 @@
         <v>100</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>33.5565681</v>
+        <v>24.9735102</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>162.474085</v>
+        <v>214.244102</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0.993957959</v>
-      </c>
-      <c r="I11" s="3" t="n">
-        <v>5.71041626E-118</v>
+        <v>0.987338458</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>1.29115265E-098</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.336873355</v>
+        <v>0.364753999</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.977188571</v>
+        <v>0.974716359</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0.995947375</v>
+        <v>0.994926998</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0.0779291136</v>
+        <v>0.100165616</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.0204295548</v>
+        <v>0.0209256942</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>0.00269218078</v>
+        <v>0.00313373612</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.0810033323</v>
+        <v>0.101674157</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -763,49 +772,49 @@
         <v>50</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>34.6462897</v>
+        <v>42.7096245</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>143.506314</v>
+        <v>303.402211</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0.994771652</v>
-      </c>
-      <c r="I12" s="3" t="n">
-        <v>9.2572132E-122</v>
+        <v>0.977174375</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>2.91610953E-083</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.323347492</v>
+        <v>0.84410179</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.977597842</v>
+        <v>0.97701158</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>0.996410942</v>
+        <v>0.999854962</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0.0776488308</v>
+        <v>0.12966745</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.0206668305</v>
+        <v>0.0220939934</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>0.00258940145</v>
+        <v>0.000144767453</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.0811718329</v>
+        <v>0.137256894</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -813,49 +822,49 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.15</v>
+        <v>0.35</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>34.3428187</v>
+        <v>11.8421388</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>150.04561</v>
+        <v>164.388998</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>0.994646079</v>
-      </c>
-      <c r="I13" s="3" t="n">
-        <v>3.87688392E-121</v>
+        <v>0.943322334</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>8.3741405E-060</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.324372179</v>
+        <v>0.378752706</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.977237068</v>
+        <v>0.97633414</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>0.996034353</v>
+        <v>0.999023856</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>0.0782591619</v>
+        <v>0.153593498</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.0205979935</v>
+        <v>0.0220837091</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>0.00268728916</v>
+        <v>0.000773897645</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.0814640945</v>
+        <v>0.160021486</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -869,43 +878,43 @@
         <v>100</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>29.2623845</v>
+        <v>0.0020586052</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>171.724511</v>
+        <v>-0.0476046931</v>
       </c>
       <c r="H14" s="0" t="n">
-        <v>0.990985605</v>
-      </c>
-      <c r="I14" s="3" t="n">
-        <v>1.70138783E-107</v>
+        <v>0.276247073</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>0.0019823529</v>
       </c>
       <c r="J14" s="0" t="n">
-        <v>0.35962679</v>
+        <v>0.00065109632</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.977052934</v>
+        <v>0.976886069</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>0.996566824</v>
+        <v>0.999997953</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>0.0838027849</v>
+        <v>0.163200502</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.0204284412</v>
-      </c>
-      <c r="O14" s="0" t="n">
-        <v>0.00224556688</v>
+        <v>0.0222306404</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>1.11658241E-005</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.0877600405</v>
+        <v>0.169668083</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,49 +922,49 @@
         <v>50</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>24.9735102</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>214.244102</v>
+        <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>0.987338458</v>
-      </c>
-      <c r="I15" s="3" t="n">
-        <v>1.29115265E-098</v>
+        <v>0</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.364753999</v>
+        <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>0.974716359</v>
+        <v>0.97687999</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.994926998</v>
+        <v>1</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>0.100165616</v>
+        <v>0.16324694</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.0209256942</v>
+        <v>0.02224061</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>0.00313373612</v>
+        <v>0</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.101674157</v>
+        <v>0.16965842</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,49 +972,49 @@
         <v>50</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>100</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.3</v>
+        <v>0.45</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0020586052</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>-0.0476046931</v>
+        <v>0</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>0.276247073</v>
+        <v>0</v>
       </c>
       <c r="I16" s="0" t="n">
-        <v>0.0019823529</v>
+        <v>1</v>
       </c>
       <c r="J16" s="0" t="n">
-        <v>0.00065109632</v>
+        <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>0.976886069</v>
+        <v>0.97687999</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.999997953</v>
+        <v>1</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>0.163200502</v>
+        <v>0.16324694</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.0222306404</v>
-      </c>
-      <c r="O16" s="3" t="n">
-        <v>1.11658241E-005</v>
+        <v>0.02224061</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>0.169668083</v>
+        <v>0.16965842</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
